--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B67BCEE9-D7C4-45F8-8375-66E60E3C6D02}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC8DF11D-1E30-4E58-ACF1-F0D7DC9D7D8C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Project Objectives</t>
   </si>
@@ -31,10 +31,76 @@
     <t>The store caters to 7 different market segments and in 3 major categories. You want to forecast at this granular level, so you subset your data into 21 (7*3) buckets before analysing these data</t>
   </si>
   <si>
-    <t>So you need to find out 2 most profitable (and consistent) segment from these 21 and forecast the sales and demand for these segments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> convert the transaction-level data into a time series. Thus, you would need to aggregate the 3 attributes  - Sales, Quantity &amp; Profit, over the Order Date to arrive at monthly values for these attributes. Once, you arrive at these 3 time series for each of the 21 segments, we need to find the 2 most profitable and consistently profitable segments. For this, the metric that you can use is the coefficient of variation of the Profit for all 21 market segments</t>
+    <t>Once you arrive at the 2 most profitable segments, the next challenge is to forecast the sales and quantity for the next 6 months. You are supposed to use classical decomposition and auto ARIMA for forecasting. Also, it is advised that you smoothen the data before you perform classical decomposition</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Task Ref</t>
+  </si>
+  <si>
+    <t>Import and clean up metadata</t>
+  </si>
+  <si>
+    <t>Remove columns that are not needed</t>
+  </si>
+  <si>
+    <t>Aggregate on month</t>
+  </si>
+  <si>
+    <t>Aggregate Sales, Quantity and Profit for a month for the 21 categories</t>
+  </si>
+  <si>
+    <t>Determine 2 most profitable segment</t>
+  </si>
+  <si>
+    <t>Remove last six months for testing and the remaining for model building</t>
+  </si>
+  <si>
+    <t>Build model using classical method and predict quantity and sales for 6 months</t>
+  </si>
+  <si>
+    <t>Build model using ARIMA model and predict quantity and sales for the 6 months</t>
+  </si>
+  <si>
+    <t>Need to find out 2 most profitable (and consistent) segment from these 21 and forecast the sales and demand for these segments.</t>
+  </si>
+  <si>
+    <t>Convert the transaction-level data into a time series. Thus, you would need to aggregate the 3 attributes  - Sales, Quantity &amp; Profit, over the Order Date to arrive at monthly values for these attributes. Once, you arrive at these 3 time series for each of the 21 segments, we need to find the 2 most profitable and consistently profitable segments. For this, the metric that you can use is the coefficient of variation of the Profit for all 21 market segments</t>
+  </si>
+  <si>
+    <t>Integrate all the scripts into one</t>
+  </si>
+  <si>
+    <t>Make presentation</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Load the spreadsheet Global Superstore into R and perform basic model cleanup. Missing value, Nas, duplicate values etc. Refer to the Data Dictionary</t>
+  </si>
+  <si>
+    <t>Only Ship Data, Market, Segment, Sales, Quantity and profit are required</t>
+  </si>
+  <si>
+    <t>First sort the data frame over Ship Date. The Data Frame is the transaction record. For the entire month, chronologically aggregate Sales for each segment. For example for 2011 January there are around 433 transactions. For each Market-Segment combination, aggregate Sales.
+Repeat the above for Quantity and Profit.
+The number of markets are 7 and the number of segments are 3. So, in total there would be 21 market/segment combination.
+Generate time series for each of 21 market/segment combination. So there would be 63 time series</t>
+  </si>
+  <si>
+    <t>Compute coefficient of variation for profit from all 21 market segment and identify the top two market segments</t>
+  </si>
+  <si>
+    <t>We would have 2 market segments and 2 time series (sales and quantity) for each. So in total 4 time series</t>
+  </si>
+  <si>
+    <t>Aggregate Sales, Quantity and Profit over a month and generate Time Series for each segment</t>
   </si>
 </sst>
 </file>
@@ -58,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -66,14 +132,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,40 +495,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:D6"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC8DF11D-1E30-4E58-ACF1-F0D7DC9D7D8C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1EFB6BD-A0AC-493E-B172-92946B506D42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Project Objectives</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Import and clean up metadata</t>
   </si>
   <si>
-    <t>Remove columns that are not needed</t>
-  </si>
-  <si>
     <t>Aggregate on month</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
   </si>
   <si>
     <t>Developer</t>
-  </si>
-  <si>
-    <t>Load the spreadsheet Global Superstore into R and perform basic model cleanup. Missing value, Nas, duplicate values etc. Refer to the Data Dictionary</t>
-  </si>
-  <si>
-    <t>Only Ship Data, Market, Segment, Sales, Quantity and profit are required</t>
   </si>
   <si>
     <t>First sort the data frame over Ship Date. The Data Frame is the transaction record. For the entire month, chronologically aggregate Sales for each segment. For example for 2011 January there are around 433 transactions. For each Market-Segment combination, aggregate Sales.
@@ -101,6 +92,12 @@
   </si>
   <si>
     <t>Aggregate Sales, Quantity and Profit over a month and generate Time Series for each segment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Load the spreadsheet Global Superstore into R and perform basic model cleanup. Missing value, Nas, duplicate values etc. Refer to the Data Dictionary. Remove columns that are not needed. Only Ship Data, Market, Segment, Sales, Quantity and profit are required</t>
   </si>
 </sst>
 </file>
@@ -495,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,8 +506,8 @@
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,31 +515,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
@@ -550,13 +547,16 @@
         <v>4</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>1</v>
       </c>
@@ -564,47 +564,47 @@
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="150" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>5</v>
       </c>
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -623,9 +623,7 @@
       <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -638,17 +636,17 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>9</v>
       </c>
@@ -657,16 +655,6 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>10</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1EFB6BD-A0AC-493E-B172-92946B506D42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{768AD223-5691-4109-8535-57A50715F634}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Project Objectives</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Load the spreadsheet Global Superstore into R and perform basic model cleanup. Missing value, Nas, duplicate values etc. Refer to the Data Dictionary. Remove columns that are not needed. Only Ship Data, Market, Segment, Sales, Quantity and profit are required</t>
+  </si>
+  <si>
+    <t>Mohandas</t>
+  </si>
+  <si>
+    <t>[20-May]Still working</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +584,12 @@
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="7">

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{768AD223-5691-4109-8535-57A50715F634}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC687836-93D5-485A-B7C9-19E299F8CCC3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,31 +79,31 @@
     <t>Developer</t>
   </si>
   <si>
-    <t>First sort the data frame over Ship Date. The Data Frame is the transaction record. For the entire month, chronologically aggregate Sales for each segment. For example for 2011 January there are around 433 transactions. For each Market-Segment combination, aggregate Sales.
+    <t>Compute coefficient of variation for profit from all 21 market segment and identify the top two market segments</t>
+  </si>
+  <si>
+    <t>We would have 2 market segments and 2 time series (sales and quantity) for each. So in total 4 time series</t>
+  </si>
+  <si>
+    <t>Aggregate Sales, Quantity and Profit over a month and generate Time Series for each segment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Load the spreadsheet Global Superstore into R and perform basic model cleanup. Missing value, Nas, duplicate values etc. Refer to the Data Dictionary. Remove columns that are not needed. Only Ship Data, Market, Segment, Sales, Quantity and profit are required</t>
+  </si>
+  <si>
+    <t>Mohandas</t>
+  </si>
+  <si>
+    <t>[20-May]Still working</t>
+  </si>
+  <si>
+    <t>First sort the data frame over Ship Date. The Data Frame is the transaction record. For the entire month, chronologically aggregate Sales for each segment. For example for 2011 January there are around 433 transactions. For each Market-Category combination, aggregate Sales.
 Repeat the above for Quantity and Profit.
-The number of markets are 7 and the number of segments are 3. So, in total there would be 21 market/segment combination.
-Generate time series for each of 21 market/segment combination. So there would be 63 time series</t>
-  </si>
-  <si>
-    <t>Compute coefficient of variation for profit from all 21 market segment and identify the top two market segments</t>
-  </si>
-  <si>
-    <t>We would have 2 market segments and 2 time series (sales and quantity) for each. So in total 4 time series</t>
-  </si>
-  <si>
-    <t>Aggregate Sales, Quantity and Profit over a month and generate Time Series for each segment</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Load the spreadsheet Global Superstore into R and perform basic model cleanup. Missing value, Nas, duplicate values etc. Refer to the Data Dictionary. Remove columns that are not needed. Only Ship Data, Market, Segment, Sales, Quantity and profit are required</t>
-  </si>
-  <si>
-    <t>Mohandas</t>
-  </si>
-  <si>
-    <t>[20-May]Still working</t>
+The number of markets are 7 and the number of categories are 3. So, in total there would be 21 market/Category combination.
+Generate time series for each of 21 market/category combination. So there would be 63 time series</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -579,16 +579,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -623,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7"/>
     </row>

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC687836-93D5-485A-B7C9-19E299F8CCC3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E1CD312-FCD9-4CAA-9B88-DCB716DAF02D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,10 +100,10 @@
     <t>[20-May]Still working</t>
   </si>
   <si>
-    <t>First sort the data frame over Ship Date. The Data Frame is the transaction record. For the entire month, chronologically aggregate Sales for each segment. For example for 2011 January there are around 433 transactions. For each Market-Category combination, aggregate Sales.
+    <t>First sort the data frame over Ship Date. The Data Frame is the transaction record. For the entire month, chronologically aggregate Sales for each segment. For example for 2011 January there are around 433 transactions. For each Market-Segment combination, aggregate Sales.
 Repeat the above for Quantity and Profit.
-The number of markets are 7 and the number of categories are 3. So, in total there would be 21 market/Category combination.
-Generate time series for each of 21 market/category combination. So there would be 63 time series</t>
+The number of markets are 7 and the number of categories are 3. So, in total there would be 21 market/Segment combination.
+Generate time series for each of 21 market/Segment combination. So there would be 63 time series</t>
   </si>
 </sst>
 </file>

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E1CD312-FCD9-4CAA-9B88-DCB716DAF02D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4E5B5A06-50B0-41A4-9188-8BD3EFDA3C9D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Project Objectives</t>
   </si>
@@ -95,15 +96,54 @@
   </si>
   <si>
     <t>Mohandas</t>
-  </si>
-  <si>
-    <t>[20-May]Still working</t>
   </si>
   <si>
     <t>First sort the data frame over Ship Date. The Data Frame is the transaction record. For the entire month, chronologically aggregate Sales for each segment. For example for 2011 January there are around 433 transactions. For each Market-Segment combination, aggregate Sales.
 Repeat the above for Quantity and Profit.
 The number of markets are 7 and the number of categories are 3. So, in total there would be 21 market/Segment combination.
 Generate time series for each of 21 market/Segment combination. So there would be 63 time series</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Africa   </t>
+  </si>
+  <si>
+    <t># APAC</t>
+  </si>
+  <si>
+    <t># Canada</t>
+  </si>
+  <si>
+    <t># EMEA</t>
+  </si>
+  <si>
+    <t># EU</t>
+  </si>
+  <si>
+    <t># LATAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># US </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Consumer </t>
+  </si>
+  <si>
+    <t># Corporate</t>
+  </si>
+  <si>
+    <t># Home Offic</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -500,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,13 +622,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -602,8 +642,11 @@
         <v>8</v>
       </c>
       <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>4</v>
       </c>
@@ -614,8 +657,11 @@
         <v>19</v>
       </c>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>5</v>
       </c>
@@ -627,7 +673,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>6</v>
       </c>
@@ -637,7 +683,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>7</v>
       </c>
@@ -647,7 +693,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>8</v>
       </c>
@@ -657,7 +703,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>9</v>
       </c>
@@ -666,6 +712,84 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B69362F-B2D6-4F5D-AA5A-1F00D38F7A21}">
+  <dimension ref="C5:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
